--- a/Inputs/Deskcount/2024/September Deskcount.xlsx
+++ b/Inputs/Deskcount/2024/September Deskcount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greystar365.sharepoint.com/sites/CorporateOfficeStrategy/Shared Documents/General/Occupancy Data/Dashboard/Inputs/Deskcount/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FCE1AB7-0CCB-476F-94A1-CE93BB8A878D}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{666F7F35-1B30-4253-855D-DB800FAAC910}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>OfficeLocation</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>No.669 Xinzha Road, One Museum, Jingan District</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -843,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1166,7 +1169,7 @@
         <v>45536</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1606,7 +1609,7 @@
         <v>45536</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1717,7 +1720,7 @@
         <v>89</v>
       </c>
       <c r="C44" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="7">
         <v>3509</v>
@@ -1786,7 +1789,7 @@
         <v>45536</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1806,7 +1809,7 @@
         <v>45536</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2235,5 +2238,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F695CF9-B76F-43CB-8958-FED77C597857}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F695CF9-B76F-43CB-8958-FED77C597857}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="334de605-b0fc-4c39-b9f0-ad19cf79a3ca"/>
+    <ds:schemaRef ds:uri="247b3ed0-617a-4d1d-b8bd-a66944492619"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>